--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_274.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_274.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,690 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(39.8, 48.28)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.38, 12.5)]</t>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.235632183908046</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D/5', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[('0:00:27.963197', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:07.158117', '0:00:14.983242')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[('0:01:08.340000', '0:01:20')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:09.200000', '0:00:20.100000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:01.680000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05499181669394435</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:03.988594', '0:00:07.754783')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G#:min/B', 'C#:maj', 'C#:maj/G#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.5, 9.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(59.162887, 65.559465)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
